--- a/Waho/wwwroot/ProductList.xlsx
+++ b/Waho/wwwroot/ProductList.xlsx
@@ -134,12 +134,6 @@
     <t>Có HSD</t>
   </si>
   <si>
-    <t>sản phẩm test</t>
-  </si>
-  <si>
-    <t>Mũ</t>
-  </si>
-  <si>
     <t>0101</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>Tất</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Áo Phao</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,22 +527,40 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D7" s="0">
+        <v>300000</v>
+      </c>
+      <c r="E7" s="0">
+        <v>600000</v>
+      </c>
       <c r="F7" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="J7" s="0">
+        <v>400</v>
+      </c>
       <c r="K7" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="M7" s="0">
+        <v>5</v>
+      </c>
+      <c r="N7" s="0">
+        <v>300</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>30</v>
@@ -559,7 +577,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>28</v>
@@ -609,7 +627,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>28</v>
@@ -659,7 +677,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>28</v>
@@ -709,7 +727,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>28</v>
@@ -759,7 +777,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>28</v>
@@ -809,7 +827,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>28</v>
@@ -859,7 +877,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>28</v>
@@ -909,19 +927,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="D15" s="0">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="E15" s="0">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>19</v>
@@ -930,10 +948,10 @@
         <v>20</v>
       </c>
       <c r="J15" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>22</v>
@@ -942,13 +960,13 @@
         <v>5</v>
       </c>
       <c r="N15" s="0">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>25</v>
@@ -959,7 +977,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>27</v>
@@ -1009,7 +1027,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>27</v>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>27</v>
@@ -1109,7 +1127,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>27</v>
@@ -1159,19 +1177,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D20" s="0">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="E20" s="0">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>19</v>
@@ -1209,7 +1227,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>18</v>
@@ -1259,10 +1277,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0">
         <v>100000</v>
@@ -1309,10 +1327,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="0">
         <v>100000</v>
@@ -1321,13 +1339,13 @@
         <v>100000</v>
       </c>
       <c r="E23" s="0">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J23" s="0">
         <v>200</v>
@@ -1336,16 +1354,16 @@
         <v>21</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M23" s="0">
         <v>5</v>
       </c>
       <c r="N23" s="0">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="P23" s="0" t="s">
         <v>24</v>
@@ -1359,16 +1377,16 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0">
         <v>100000</v>
       </c>
       <c r="D24" s="0">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E24" s="0">
         <v>150000</v>
@@ -1389,13 +1407,13 @@
         <v>35</v>
       </c>
       <c r="M24" s="0">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="N24" s="0">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>24</v>
@@ -1409,7 +1427,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>37</v>
@@ -1424,7 +1442,13 @@
         <v>150000</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="G25" s="0">
+        <v>44958</v>
+      </c>
+      <c r="H25" s="0">
+        <v>45046</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>34</v>
@@ -1439,13 +1463,13 @@
         <v>35</v>
       </c>
       <c r="M25" s="0">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="N25" s="0">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>24</v>
@@ -1459,13 +1483,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="0">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="0">
         <v>200000</v>
@@ -1477,10 +1501,10 @@
         <v>39</v>
       </c>
       <c r="G26" s="0">
-        <v>44958</v>
+        <v>44957</v>
       </c>
       <c r="H26" s="0">
-        <v>45046</v>
+        <v>44968</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>34</v>
@@ -1498,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="N26" s="0">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>36</v>
@@ -1515,7 +1539,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>37</v>
@@ -1530,13 +1554,7 @@
         <v>150000</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H27" s="0">
-        <v>44968</v>
+        <v>19</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>34</v>
@@ -1551,10 +1569,10 @@
         <v>35</v>
       </c>
       <c r="M27" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N27" s="0">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>36</v>
@@ -1571,7 +1589,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>37</v>
@@ -1601,13 +1619,13 @@
         <v>35</v>
       </c>
       <c r="M28" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N28" s="0">
         <v>100</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>24</v>
@@ -1621,46 +1639,46 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="0">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="0">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="0">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="0">
         <v>1000</v>
       </c>
-      <c r="D29" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E29" s="0">
-        <v>150000</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="0">
-        <v>200</v>
-      </c>
       <c r="K29" s="0" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M29" s="0">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N29" s="0">
         <v>100</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>25</v>
@@ -1671,46 +1689,52 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0">
-        <v>1000</v>
+        <v>300000</v>
       </c>
       <c r="D30" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E30" s="0">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G30" s="0">
+        <v>44958</v>
+      </c>
+      <c r="H30" s="0">
+        <v>45046</v>
+      </c>
       <c r="I30" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J30" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M30" s="0">
         <v>5</v>
       </c>
       <c r="N30" s="0">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>25</v>
@@ -1721,46 +1745,52 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0">
-        <v>1000</v>
+        <v>300000</v>
       </c>
       <c r="D31" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E31" s="0">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G31" s="0">
+        <v>44957</v>
+      </c>
+      <c r="H31" s="0">
+        <v>44968</v>
+      </c>
       <c r="I31" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J31" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M31" s="0">
         <v>5</v>
       </c>
       <c r="N31" s="0">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>25</v>
@@ -1771,46 +1801,52 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C32" s="0">
-        <v>1000</v>
+        <v>300000</v>
       </c>
       <c r="D32" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E32" s="0">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G32" s="0">
+        <v>44958</v>
+      </c>
+      <c r="H32" s="0">
+        <v>45046</v>
+      </c>
       <c r="I32" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J32" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M32" s="0">
         <v>5</v>
       </c>
       <c r="N32" s="0">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>25</v>
@@ -1821,46 +1857,52 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C33" s="0">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="D33" s="0">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="E33" s="0">
-        <v>10000</v>
+        <v>600000</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G33" s="0">
+        <v>44957</v>
+      </c>
+      <c r="H33" s="0">
+        <v>44968</v>
+      </c>
       <c r="I33" s="0" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J33" s="0">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M33" s="0">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="N33" s="0">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>25</v>
@@ -1871,22 +1913,22 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C34" s="0">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="D34" s="0">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E34" s="0">
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G34" s="0">
         <v>44958</v>
@@ -1895,28 +1937,28 @@
         <v>45046</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J34" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M34" s="0">
         <v>5</v>
       </c>
       <c r="N34" s="0">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>25</v>
@@ -1927,22 +1969,22 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C35" s="0">
-        <v>300000</v>
+        <v>1000</v>
       </c>
       <c r="D35" s="0">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E35" s="0">
-        <v>600000</v>
+        <v>150000</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G35" s="0">
         <v>44957</v>
@@ -1951,28 +1993,28 @@
         <v>44968</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J35" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M35" s="0">
         <v>5</v>
       </c>
       <c r="N35" s="0">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>25</v>
@@ -1983,7 +2025,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>37</v>
@@ -1995,16 +2037,10 @@
         <v>200000</v>
       </c>
       <c r="E36" s="0">
-        <v>150000</v>
+        <v>1000000</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H36" s="0">
-        <v>45046</v>
+        <v>19</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>34</v>
@@ -2022,13 +2058,13 @@
         <v>5</v>
       </c>
       <c r="N36" s="0">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>25</v>
@@ -2039,28 +2075,28 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="0">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D37" s="0">
         <v>200000</v>
       </c>
       <c r="E37" s="0">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="0">
-        <v>44957</v>
+        <v>44986</v>
       </c>
       <c r="H37" s="0">
-        <v>44968</v>
+        <v>44972</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>34</v>
@@ -2075,16 +2111,16 @@
         <v>35</v>
       </c>
       <c r="M37" s="0">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="N37" s="0">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>25</v>
@@ -2095,52 +2131,46 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C38" s="0">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="D38" s="0">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E38" s="0">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H38" s="0">
-        <v>45046</v>
-      </c>
       <c r="I38" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J38" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M38" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" s="0">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>25</v>
@@ -2151,10 +2181,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="0">
         <v>300000</v>
@@ -2169,10 +2199,10 @@
         <v>19</v>
       </c>
       <c r="G39" s="0">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="H39" s="0">
-        <v>44968</v>
+        <v>45046</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>20</v>
@@ -2207,52 +2237,52 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C40" s="0">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="D40" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E40" s="0">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G40" s="0">
-        <v>44958</v>
+        <v>44957</v>
       </c>
       <c r="H40" s="0">
-        <v>45046</v>
+        <v>44968</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J40" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M40" s="0">
         <v>5</v>
       </c>
       <c r="N40" s="0">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>25</v>
@@ -2263,52 +2293,52 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0">
-        <v>1000</v>
+        <v>300000</v>
       </c>
       <c r="D41" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E41" s="0">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G41" s="0">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="H41" s="0">
-        <v>44968</v>
+        <v>45046</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J41" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M41" s="0">
         <v>5</v>
       </c>
       <c r="N41" s="0">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>25</v>
@@ -2319,46 +2349,52 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C42" s="0">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="D42" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E42" s="0">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G42" s="0">
+        <v>44957</v>
+      </c>
+      <c r="H42" s="0">
+        <v>44968</v>
+      </c>
       <c r="I42" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J42" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M42" s="0">
         <v>5</v>
       </c>
       <c r="N42" s="0">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>25</v>
@@ -2369,52 +2405,52 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C43" s="0">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="D43" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E43" s="0">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G43" s="0">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="H43" s="0">
-        <v>44972</v>
+        <v>45046</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J43" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M43" s="0">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="N43" s="0">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>25</v>
@@ -2425,46 +2461,52 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C44" s="0">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="D44" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E44" s="0">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G44" s="0">
+        <v>44957</v>
+      </c>
+      <c r="H44" s="0">
+        <v>44968</v>
+      </c>
       <c r="I44" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J44" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M44" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N44" s="0">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>25</v>
@@ -2475,22 +2517,28 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="0">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D45" s="0">
         <v>200000</v>
       </c>
       <c r="E45" s="0">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="G45" s="0">
+        <v>44958</v>
+      </c>
+      <c r="H45" s="0">
+        <v>45046</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>34</v>
@@ -2505,16 +2553,16 @@
         <v>35</v>
       </c>
       <c r="M45" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" s="0">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="0" t="s">
         <v>36</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>25</v>
@@ -2525,52 +2573,46 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C46" s="0">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="D46" s="0">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="E46" s="0">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H46" s="0">
-        <v>45046</v>
-      </c>
       <c r="I46" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J46" s="0">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M46" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N46" s="0">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>25</v>
@@ -2581,10 +2623,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="0">
         <v>300000</v>
@@ -2599,10 +2641,10 @@
         <v>19</v>
       </c>
       <c r="G47" s="0">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="H47" s="0">
-        <v>44968</v>
+        <v>45046</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>20</v>
@@ -2637,52 +2679,52 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C48" s="0">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="D48" s="0">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E48" s="0">
-        <v>150000</v>
+        <v>600000</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G48" s="0">
-        <v>44958</v>
+        <v>44957</v>
       </c>
       <c r="H48" s="0">
-        <v>45046</v>
+        <v>44968</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J48" s="0">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M48" s="0">
         <v>5</v>
       </c>
       <c r="N48" s="0">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>25</v>
@@ -2693,13 +2735,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="0">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="D49" s="0">
         <v>200000</v>
@@ -2711,10 +2753,10 @@
         <v>39</v>
       </c>
       <c r="G49" s="0">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="H49" s="0">
-        <v>44968</v>
+        <v>45046</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>34</v>
@@ -2732,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="N49" s="0">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>36</v>
@@ -2744,6 +2786,286 @@
         <v>25</v>
       </c>
       <c r="R49" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>83</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="0">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="0">
+        <v>200000</v>
+      </c>
+      <c r="E50" s="0">
+        <v>150000</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="0">
+        <v>44957</v>
+      </c>
+      <c r="H50" s="0">
+        <v>44968</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="0">
+        <v>200</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="0">
+        <v>5</v>
+      </c>
+      <c r="N50" s="0">
+        <v>5</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>84</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D51" s="0">
+        <v>300000</v>
+      </c>
+      <c r="E51" s="0">
+        <v>600000</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="0">
+        <v>44958</v>
+      </c>
+      <c r="H51" s="0">
+        <v>45046</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="0">
+        <v>400</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="0">
+        <v>5</v>
+      </c>
+      <c r="N51" s="0">
+        <v>300</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>85</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="0">
+        <v>300000</v>
+      </c>
+      <c r="D52" s="0">
+        <v>300000</v>
+      </c>
+      <c r="E52" s="0">
+        <v>600000</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="0">
+        <v>44957</v>
+      </c>
+      <c r="H52" s="0">
+        <v>44968</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="0">
+        <v>400</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="0">
+        <v>5</v>
+      </c>
+      <c r="N52" s="0">
+        <v>300</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>86</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="0">
+        <v>100000</v>
+      </c>
+      <c r="D53" s="0">
+        <v>200000</v>
+      </c>
+      <c r="E53" s="0">
+        <v>150000</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="0">
+        <v>44958</v>
+      </c>
+      <c r="H53" s="0">
+        <v>45046</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="0">
+        <v>200</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" s="0">
+        <v>5</v>
+      </c>
+      <c r="N53" s="0">
+        <v>200</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>87</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="0">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="0">
+        <v>200000</v>
+      </c>
+      <c r="E54" s="0">
+        <v>150000</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="0">
+        <v>44957</v>
+      </c>
+      <c r="H54" s="0">
+        <v>44968</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="0">
+        <v>200</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="0">
+        <v>5</v>
+      </c>
+      <c r="N54" s="0">
+        <v>5</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" s="0" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Waho/wwwroot/ProductList.xlsx
+++ b/Waho/wwwroot/ProductList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -74,9 +74,18 @@
     <t>Áo Phông Thêu</t>
   </si>
   <si>
+    <t>100000 đồng</t>
+  </si>
+  <si>
+    <t>200000 đồng</t>
+  </si>
+  <si>
     <t>Không có HSD</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Local Brand</t>
   </si>
   <si>
@@ -101,9 +110,18 @@
     <t>Áo Phông in tất cả LOGO</t>
   </si>
   <si>
+    <t>150000 đồng</t>
+  </si>
+  <si>
+    <t>300000 đồng</t>
+  </si>
+  <si>
     <t xml:space="preserve">Áo Khoác hồng </t>
   </si>
   <si>
+    <t>600000 đồng</t>
+  </si>
+  <si>
     <t>A02</t>
   </si>
   <si>
@@ -137,6 +155,24 @@
     <t>Có HSD</t>
   </si>
   <si>
+    <t>1/2/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>30/4/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>1000 đồng</t>
+  </si>
+  <si>
+    <t>31/1/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/2/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>10000 đồng</t>
+  </si>
+  <si>
     <t>0101</t>
   </si>
   <si>
@@ -152,12 +188,21 @@
     <t>Áo Khoác hồng</t>
   </si>
   <si>
+    <t>1000000 đồng</t>
+  </si>
+  <si>
     <t>quiz1131</t>
   </si>
   <si>
     <t>Áo Nỉ</t>
   </si>
   <si>
+    <t>1/3/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>15/2/2023 12:00:00 AM</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
@@ -174,6 +219,9 @@
   </si>
   <si>
     <t>áo Tshirt ong mật ver 300</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
 </sst>
 </file>
@@ -219,7 +267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -291,29 +339,35 @@
       <c r="B2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="0">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="0">
-        <v>200000</v>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" s="0">
         <v>200</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M2" s="0">
         <v>5</v>
@@ -322,16 +376,16 @@
         <v>500</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S2" s="0">
         <v>100</v>
@@ -342,31 +396,37 @@
         <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="0">
-        <v>150000</v>
-      </c>
-      <c r="D3" s="0">
-        <v>150000</v>
-      </c>
-      <c r="E3" s="0">
-        <v>300000</v>
+        <v>31</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" s="0">
         <v>200</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3" s="0">
         <v>5</v>
@@ -375,16 +435,16 @@
         <v>500</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S3" s="0">
         <v>100</v>
@@ -395,31 +455,37 @@
         <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D4" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E4" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0">
         <v>400</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M4" s="0">
         <v>5</v>
@@ -428,16 +494,16 @@
         <v>300</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S4" s="0">
         <v>100</v>
@@ -448,31 +514,37 @@
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D5" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" s="0">
         <v>400</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="0">
         <v>5</v>
@@ -481,16 +553,16 @@
         <v>300</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S5" s="0">
         <v>100</v>
@@ -501,31 +573,37 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D6" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E6" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J6" s="0">
         <v>400</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="0">
         <v>5</v>
@@ -534,16 +612,16 @@
         <v>300</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S6" s="0">
         <v>100</v>
@@ -554,31 +632,37 @@
         <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D7" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E7" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J7" s="0">
         <v>400</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M7" s="0">
         <v>5</v>
@@ -587,16 +671,16 @@
         <v>300</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S7" s="0">
         <v>100</v>
@@ -607,31 +691,37 @@
         <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D8" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E8" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J8" s="0">
         <v>400</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="0">
         <v>5</v>
@@ -640,16 +730,16 @@
         <v>300</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S8" s="0">
         <v>100</v>
@@ -660,31 +750,37 @@
         <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D9" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E9" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J9" s="0">
         <v>400</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0">
         <v>5</v>
@@ -693,16 +789,16 @@
         <v>300</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S9" s="0">
         <v>100</v>
@@ -713,31 +809,37 @@
         <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D10" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E10" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J10" s="0">
         <v>400</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M10" s="0">
         <v>5</v>
@@ -746,16 +848,16 @@
         <v>300</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S10" s="0">
         <v>100</v>
@@ -766,31 +868,37 @@
         <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D11" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E11" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J11" s="0">
         <v>400</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="0">
         <v>5</v>
@@ -799,16 +907,16 @@
         <v>300</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S11" s="0">
         <v>100</v>
@@ -819,31 +927,37 @@
         <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D12" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E12" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J12" s="0">
         <v>400</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="0">
         <v>5</v>
@@ -852,16 +966,16 @@
         <v>300</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S12" s="0">
         <v>100</v>
@@ -872,31 +986,37 @@
         <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D13" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E13" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J13" s="0">
         <v>400</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M13" s="0">
         <v>5</v>
@@ -905,16 +1025,16 @@
         <v>300</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S13" s="0">
         <v>100</v>
@@ -925,31 +1045,37 @@
         <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D14" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E14" s="0">
-        <v>600000</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J14" s="0">
         <v>400</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="0">
         <v>5</v>
@@ -958,16 +1084,16 @@
         <v>300</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S14" s="0">
         <v>100</v>
@@ -978,31 +1104,37 @@
         <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="0">
-        <v>150000</v>
-      </c>
-      <c r="D15" s="0">
-        <v>150000</v>
-      </c>
-      <c r="E15" s="0">
-        <v>300000</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J15" s="0">
         <v>200</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="0">
         <v>5</v>
@@ -1011,16 +1143,16 @@
         <v>500</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S15" s="0">
         <v>100</v>
@@ -1031,31 +1163,37 @@
         <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="0">
-        <v>150000</v>
-      </c>
-      <c r="D16" s="0">
-        <v>150000</v>
-      </c>
-      <c r="E16" s="0">
-        <v>300000</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J16" s="0">
         <v>200</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M16" s="0">
         <v>5</v>
@@ -1064,16 +1202,16 @@
         <v>500</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S16" s="0">
         <v>100</v>
@@ -1084,31 +1222,37 @@
         <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="0">
-        <v>150000</v>
-      </c>
-      <c r="D17" s="0">
-        <v>150000</v>
-      </c>
-      <c r="E17" s="0">
-        <v>300000</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J17" s="0">
         <v>200</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M17" s="0">
         <v>5</v>
@@ -1117,16 +1261,16 @@
         <v>500</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S17" s="0">
         <v>100</v>
@@ -1137,31 +1281,37 @@
         <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="0">
-        <v>150000</v>
-      </c>
-      <c r="D18" s="0">
-        <v>150000</v>
-      </c>
-      <c r="E18" s="0">
-        <v>300000</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J18" s="0">
         <v>200</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="0">
         <v>5</v>
@@ -1170,16 +1320,16 @@
         <v>500</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S18" s="0">
         <v>100</v>
@@ -1190,31 +1340,37 @@
         <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="0">
-        <v>150000</v>
-      </c>
-      <c r="D19" s="0">
-        <v>150000</v>
-      </c>
-      <c r="E19" s="0">
-        <v>300000</v>
+        <v>31</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J19" s="0">
         <v>200</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M19" s="0">
         <v>5</v>
@@ -1223,16 +1379,16 @@
         <v>500</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S19" s="0">
         <v>100</v>
@@ -1245,29 +1401,35 @@
       <c r="B20" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D20" s="0">
-        <v>100000</v>
-      </c>
-      <c r="E20" s="0">
-        <v>200000</v>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J20" s="0">
         <v>200</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M20" s="0">
         <v>5</v>
@@ -1276,16 +1438,16 @@
         <v>500</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S20" s="0">
         <v>100</v>
@@ -1298,29 +1460,35 @@
       <c r="B21" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D21" s="0">
-        <v>100000</v>
-      </c>
-      <c r="E21" s="0">
-        <v>200000</v>
+      <c r="C21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J21" s="0">
         <v>200</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M21" s="0">
         <v>5</v>
@@ -1329,16 +1497,16 @@
         <v>500</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S21" s="0">
         <v>100</v>
@@ -1349,31 +1517,37 @@
         <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D22" s="0">
-        <v>100000</v>
-      </c>
-      <c r="E22" s="0">
-        <v>200000</v>
+        <v>39</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J22" s="0">
         <v>200</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M22" s="0">
         <v>5</v>
@@ -1382,16 +1556,16 @@
         <v>500</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S22" s="0">
         <v>100</v>
@@ -1402,31 +1576,37 @@
         <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D23" s="0">
-        <v>100000</v>
-      </c>
-      <c r="E23" s="0">
-        <v>150000</v>
+        <v>40</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J23" s="0">
         <v>200</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M23" s="0">
         <v>5</v>
@@ -1435,16 +1615,16 @@
         <v>200</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S23" s="0">
         <v>100</v>
@@ -1455,31 +1635,37 @@
         <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D24" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E24" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J24" s="0">
         <v>200</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M24" s="0">
         <v>55</v>
@@ -1488,16 +1674,16 @@
         <v>500</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S24" s="0">
         <v>100</v>
@@ -1508,37 +1694,37 @@
         <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D25" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E25" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H25" s="0">
-        <v>45046</v>
+        <v>46</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J25" s="0">
         <v>200</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M25" s="0">
         <v>5</v>
@@ -1547,16 +1733,16 @@
         <v>200</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S25" s="0">
         <v>100</v>
@@ -1567,37 +1753,37 @@
         <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D26" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E26" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H26" s="0">
-        <v>44968</v>
+        <v>46</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J26" s="0">
         <v>200</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M26" s="0">
         <v>5</v>
@@ -1606,16 +1792,16 @@
         <v>5</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S26" s="0">
         <v>100</v>
@@ -1626,31 +1812,37 @@
         <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D27" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E27" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J27" s="0">
         <v>200</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M27" s="0">
         <v>11</v>
@@ -1659,16 +1851,16 @@
         <v>100</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S27" s="0">
         <v>100</v>
@@ -1679,31 +1871,37 @@
         <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D28" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E28" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J28" s="0">
         <v>200</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M28" s="0">
         <v>1</v>
@@ -1712,16 +1910,16 @@
         <v>100</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S28" s="0">
         <v>100</v>
@@ -1732,31 +1930,37 @@
         <v>54</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="0">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="0">
-        <v>10000</v>
-      </c>
-      <c r="E29" s="0">
-        <v>10000</v>
+        <v>44</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J29" s="0">
         <v>1000</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M29" s="0">
         <v>1000</v>
@@ -1765,16 +1969,16 @@
         <v>100</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S29" s="0">
         <v>100</v>
@@ -1785,37 +1989,37 @@
         <v>55</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D30" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E30" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H30" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J30" s="0">
         <v>400</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M30" s="0">
         <v>5</v>
@@ -1824,16 +2028,16 @@
         <v>300</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S30" s="0">
         <v>100</v>
@@ -1844,37 +2048,37 @@
         <v>56</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D31" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E31" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H31" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J31" s="0">
         <v>400</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M31" s="0">
         <v>5</v>
@@ -1883,16 +2087,16 @@
         <v>300</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S31" s="0">
         <v>100</v>
@@ -1903,37 +2107,37 @@
         <v>59</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D32" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E32" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H32" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J32" s="0">
         <v>400</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M32" s="0">
         <v>5</v>
@@ -1942,16 +2146,16 @@
         <v>300</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S32" s="0">
         <v>100</v>
@@ -1962,37 +2166,37 @@
         <v>60</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D33" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E33" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H33" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J33" s="0">
         <v>400</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M33" s="0">
         <v>5</v>
@@ -2001,16 +2205,16 @@
         <v>300</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S33" s="0">
         <v>100</v>
@@ -2021,37 +2225,37 @@
         <v>61</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D34" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E34" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H34" s="0">
-        <v>45046</v>
+        <v>46</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J34" s="0">
         <v>200</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M34" s="0">
         <v>5</v>
@@ -2060,16 +2264,16 @@
         <v>200</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S34" s="0">
         <v>100</v>
@@ -2080,37 +2284,37 @@
         <v>62</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D35" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E35" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H35" s="0">
-        <v>44968</v>
+        <v>46</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J35" s="0">
         <v>200</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M35" s="0">
         <v>5</v>
@@ -2119,16 +2323,16 @@
         <v>5</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S35" s="0">
         <v>100</v>
@@ -2139,31 +2343,37 @@
         <v>63</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D36" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E36" s="0">
-        <v>1000000</v>
+        <v>44</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J36" s="0">
         <v>200</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M36" s="0">
         <v>5</v>
@@ -2172,16 +2382,16 @@
         <v>500</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S36" s="0">
         <v>100</v>
@@ -2192,37 +2402,37 @@
         <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="0">
-        <v>10000</v>
-      </c>
-      <c r="D37" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E37" s="0">
-        <v>100000</v>
+        <v>44</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="0">
-        <v>44986</v>
-      </c>
-      <c r="H37" s="0">
-        <v>44972</v>
+        <v>46</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J37" s="0">
         <v>200</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M37" s="0">
         <v>1000</v>
@@ -2231,16 +2441,16 @@
         <v>1000</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S37" s="0">
         <v>100</v>
@@ -2251,31 +2461,37 @@
         <v>65</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="0">
-        <v>10000</v>
-      </c>
-      <c r="D38" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E38" s="0">
-        <v>100000</v>
+        <v>44</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J38" s="0">
         <v>200</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M38" s="0">
         <v>1</v>
@@ -2284,16 +2500,16 @@
         <v>10</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S38" s="0">
         <v>100</v>
@@ -2304,37 +2520,37 @@
         <v>67</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D39" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E39" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H39" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J39" s="0">
         <v>400</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M39" s="0">
         <v>5</v>
@@ -2343,16 +2559,16 @@
         <v>300</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S39" s="0">
         <v>100</v>
@@ -2363,37 +2579,37 @@
         <v>68</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D40" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E40" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H40" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J40" s="0">
         <v>400</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M40" s="0">
         <v>5</v>
@@ -2402,16 +2618,16 @@
         <v>300</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S40" s="0">
         <v>100</v>
@@ -2422,37 +2638,37 @@
         <v>71</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D41" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E41" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H41" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J41" s="0">
         <v>400</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M41" s="0">
         <v>5</v>
@@ -2461,16 +2677,16 @@
         <v>300</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S41" s="0">
         <v>100</v>
@@ -2481,37 +2697,37 @@
         <v>72</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D42" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E42" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H42" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J42" s="0">
         <v>400</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M42" s="0">
         <v>5</v>
@@ -2520,16 +2736,16 @@
         <v>300</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S42" s="0">
         <v>100</v>
@@ -2540,37 +2756,37 @@
         <v>75</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D43" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E43" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H43" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J43" s="0">
         <v>400</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M43" s="0">
         <v>5</v>
@@ -2579,16 +2795,16 @@
         <v>300</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S43" s="0">
         <v>100</v>
@@ -2599,37 +2815,37 @@
         <v>76</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D44" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E44" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H44" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J44" s="0">
         <v>400</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M44" s="0">
         <v>5</v>
@@ -2638,16 +2854,16 @@
         <v>300</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S44" s="0">
         <v>100</v>
@@ -2658,37 +2874,37 @@
         <v>77</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D45" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E45" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H45" s="0">
-        <v>45046</v>
+        <v>46</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J45" s="0">
         <v>200</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M45" s="0">
         <v>5</v>
@@ -2697,16 +2913,16 @@
         <v>200</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S45" s="0">
         <v>100</v>
@@ -2717,31 +2933,37 @@
         <v>79</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="0">
-        <v>10000</v>
-      </c>
-      <c r="D46" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E46" s="0">
-        <v>100000</v>
+        <v>40</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="J46" s="0">
         <v>1</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M46" s="0">
         <v>1</v>
@@ -2750,16 +2972,16 @@
         <v>10</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S46" s="0">
         <v>100</v>
@@ -2770,37 +2992,37 @@
         <v>80</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D47" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E47" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H47" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J47" s="0">
         <v>400</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M47" s="0">
         <v>5</v>
@@ -2809,16 +3031,16 @@
         <v>300</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S47" s="0">
         <v>100</v>
@@ -2829,37 +3051,37 @@
         <v>81</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D48" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E48" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H48" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J48" s="0">
         <v>400</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M48" s="0">
         <v>5</v>
@@ -2868,16 +3090,16 @@
         <v>300</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S48" s="0">
         <v>100</v>
@@ -2888,37 +3110,37 @@
         <v>82</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D49" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E49" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H49" s="0">
-        <v>45046</v>
+        <v>46</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J49" s="0">
         <v>200</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M49" s="0">
         <v>5</v>
@@ -2927,16 +3149,16 @@
         <v>200</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S49" s="0">
         <v>100</v>
@@ -2947,37 +3169,37 @@
         <v>83</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D50" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E50" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H50" s="0">
-        <v>44968</v>
+        <v>46</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J50" s="0">
         <v>200</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M50" s="0">
         <v>5</v>
@@ -2986,16 +3208,16 @@
         <v>5</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S50" s="0">
         <v>100</v>
@@ -3006,37 +3228,37 @@
         <v>84</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D51" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E51" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H51" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J51" s="0">
         <v>400</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M51" s="0">
         <v>5</v>
@@ -3045,16 +3267,16 @@
         <v>300</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S51" s="0">
         <v>100</v>
@@ -3065,37 +3287,37 @@
         <v>85</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D52" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E52" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H52" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J52" s="0">
         <v>400</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M52" s="0">
         <v>5</v>
@@ -3104,16 +3326,16 @@
         <v>300</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S52" s="0">
         <v>100</v>
@@ -3124,37 +3346,37 @@
         <v>86</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D53" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E53" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H53" s="0">
-        <v>45046</v>
+        <v>46</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J53" s="0">
         <v>200</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M53" s="0">
         <v>5</v>
@@ -3163,16 +3385,16 @@
         <v>200</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S53" s="0">
         <v>100</v>
@@ -3183,37 +3405,37 @@
         <v>87</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D54" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E54" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H54" s="0">
-        <v>44968</v>
+        <v>46</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J54" s="0">
         <v>200</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M54" s="0">
         <v>5</v>
@@ -3222,16 +3444,16 @@
         <v>5</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S54" s="0">
         <v>100</v>
@@ -3242,31 +3464,37 @@
         <v>90</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="0">
-        <v>10000</v>
-      </c>
-      <c r="D55" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E55" s="0">
-        <v>100000</v>
+        <v>68</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J55" s="0">
         <v>200</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M55" s="0">
         <v>1000</v>
@@ -3275,16 +3503,16 @@
         <v>1000</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S55" s="0">
         <v>1000</v>
@@ -3295,37 +3523,37 @@
         <v>91</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D56" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E56" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H56" s="0">
-        <v>45046</v>
+        <v>22</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J56" s="0">
         <v>400</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M56" s="0">
         <v>5</v>
@@ -3334,16 +3562,16 @@
         <v>300</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S56" s="0">
         <v>200</v>
@@ -3354,37 +3582,37 @@
         <v>92</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="0">
-        <v>300000</v>
-      </c>
-      <c r="D57" s="0">
-        <v>300000</v>
-      </c>
-      <c r="E57" s="0">
-        <v>600000</v>
+        <v>57</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H57" s="0">
-        <v>44968</v>
+        <v>22</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J57" s="0">
         <v>400</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M57" s="0">
         <v>5</v>
@@ -3393,16 +3621,16 @@
         <v>300</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S57" s="0">
         <v>200</v>
@@ -3413,37 +3641,37 @@
         <v>93</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="0">
-        <v>100000</v>
-      </c>
-      <c r="D58" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E58" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="0">
-        <v>44958</v>
-      </c>
-      <c r="H58" s="0">
-        <v>45046</v>
+        <v>46</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J58" s="0">
         <v>200</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M58" s="0">
         <v>5</v>
@@ -3452,16 +3680,16 @@
         <v>200</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S58" s="0">
         <v>200</v>
@@ -3472,37 +3700,37 @@
         <v>94</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="0">
-        <v>1000</v>
-      </c>
-      <c r="D59" s="0">
-        <v>200000</v>
-      </c>
-      <c r="E59" s="0">
-        <v>150000</v>
+        <v>44</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="0">
-        <v>44957</v>
-      </c>
-      <c r="H59" s="0">
-        <v>44968</v>
+        <v>46</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J59" s="0">
         <v>200</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M59" s="0">
         <v>5</v>
@@ -3511,19 +3739,78 @@
         <v>5</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>95</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J60" s="0">
+        <v>100</v>
+      </c>
+      <c r="K60" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Q59" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R59" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="S59" s="0">
-        <v>200</v>
+      <c r="L60" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="0">
+        <v>1</v>
+      </c>
+      <c r="N60" s="0">
+        <v>10</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Waho/wwwroot/ProductList.xlsx
+++ b/Waho/wwwroot/ProductList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>100000</t>
+  </si>
+  <si>
+    <t>test update</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3813,6 +3819,360 @@
         <v>10</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>96</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="0">
+        <v>200</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" s="0">
+        <v>1</v>
+      </c>
+      <c r="N61" s="0">
+        <v>100</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>97</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" s="0">
+        <v>100</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="0">
+        <v>10000</v>
+      </c>
+      <c r="N62" s="0">
+        <v>100000</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>98</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="0">
+        <v>400</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" s="0">
+        <v>5</v>
+      </c>
+      <c r="N63" s="0">
+        <v>300</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>99</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="0">
+        <v>400</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" s="0">
+        <v>5</v>
+      </c>
+      <c r="N64" s="0">
+        <v>300</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R64" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>100</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65" s="0">
+        <v>200</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M65" s="0">
+        <v>5</v>
+      </c>
+      <c r="N65" s="0">
+        <v>200</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S65" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>101</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" s="0">
+        <v>200</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="0">
+        <v>5</v>
+      </c>
+      <c r="N66" s="0">
+        <v>5</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S66" s="0">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Waho/wwwroot/ProductList.xlsx
+++ b/Waho/wwwroot/ProductList.xlsx
@@ -273,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4173,6 +4173,242 @@
         <v>200</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>102</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="0">
+        <v>400</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" s="0">
+        <v>5</v>
+      </c>
+      <c r="N67" s="0">
+        <v>300</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R67" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S67" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>103</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="0">
+        <v>400</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" s="0">
+        <v>5</v>
+      </c>
+      <c r="N68" s="0">
+        <v>300</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S68" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>104</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="0">
+        <v>200</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="0">
+        <v>5</v>
+      </c>
+      <c r="N69" s="0">
+        <v>200</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q69" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R69" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>105</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" s="0">
+        <v>200</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="0">
+        <v>5</v>
+      </c>
+      <c r="N70" s="0">
+        <v>5</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q70" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" s="0">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Waho/wwwroot/ProductList.xlsx
+++ b/Waho/wwwroot/ProductList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -228,6 +228,27 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>áo Tshirt ong mật ver 2 update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đồng</t>
+  </si>
+  <si>
+    <t>0 đồng</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>19/3/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>25/3/2023 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -273,7 +294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4296,16 +4317,16 @@
         <v>104</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>46</v>
@@ -4319,21 +4340,12 @@
       <c r="I69" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J69" s="0">
-        <v>200</v>
-      </c>
       <c r="K69" s="0" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M69" s="0">
-        <v>5</v>
-      </c>
-      <c r="N69" s="0">
-        <v>200</v>
-      </c>
       <c r="O69" s="0" t="s">
         <v>43</v>
       </c>
@@ -4347,7 +4359,7 @@
         <v>30</v>
       </c>
       <c r="S69" s="0">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4406,6 +4418,301 @@
         <v>30</v>
       </c>
       <c r="S70" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>106</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="0">
+        <v>200</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="0">
+        <v>10</v>
+      </c>
+      <c r="N71" s="0">
+        <v>100</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>107</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="0">
+        <v>400</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M72" s="0">
+        <v>5</v>
+      </c>
+      <c r="N72" s="0">
+        <v>300</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R72" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S72" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>108</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="0">
+        <v>400</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" s="0">
+        <v>5</v>
+      </c>
+      <c r="N73" s="0">
+        <v>300</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R73" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S73" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>109</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="0">
+        <v>200</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="0">
+        <v>5</v>
+      </c>
+      <c r="N74" s="0">
+        <v>200</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R74" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S74" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>110</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J75" s="0">
+        <v>200</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="0">
+        <v>5</v>
+      </c>
+      <c r="N75" s="0">
+        <v>5</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R75" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S75" s="0">
         <v>200</v>
       </c>
     </row>

--- a/Waho/wwwroot/ProductList.xlsx
+++ b/Waho/wwwroot/ProductList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -119,16 +119,28 @@
     <t xml:space="preserve">Áo Khoác hồng </t>
   </si>
   <si>
+    <t xml:space="preserve"> đồng</t>
+  </si>
+  <si>
+    <t>0 đồng</t>
+  </si>
+  <si>
+    <t>áo 2 lớp gió</t>
+  </si>
+  <si>
+    <t>Áo Khoác</t>
+  </si>
+  <si>
+    <t>H2T</t>
+  </si>
+  <si>
     <t>600000 đồng</t>
   </si>
   <si>
     <t>A02</t>
   </si>
   <si>
-    <t>áo 2 lớp gió</t>
-  </si>
-  <si>
-    <t>Áo Khoác</t>
+    <t>02</t>
   </si>
   <si>
     <t>Áo Phông hồng</t>
@@ -197,49 +209,16 @@
     <t>Áo Nỉ</t>
   </si>
   <si>
-    <t>1/3/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>15/2/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>suit</t>
-  </si>
-  <si>
-    <t>Tất</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
     <t>Áo Phao</t>
   </si>
   <si>
-    <t>áo Tshirt ong mật ver 300</t>
-  </si>
-  <si>
     <t>100000</t>
   </si>
   <si>
-    <t>test update</t>
-  </si>
-  <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>áo Tshirt ong mật ver 2 update</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> đồng</t>
-  </si>
-  <si>
-    <t>0 đồng</t>
-  </si>
-  <si>
-    <t>01</t>
   </si>
   <si>
     <t>19/3/2023 12:00:00 AM</t>
@@ -294,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,13 +464,13 @@
         <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>22</v>
@@ -505,21 +484,12 @@
       <c r="I4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="0">
-        <v>400</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="0">
-        <v>5</v>
-      </c>
-      <c r="N4" s="0">
-        <v>300</v>
-      </c>
       <c r="O4" s="0" t="s">
         <v>37</v>
       </c>
@@ -527,13 +497,13 @@
         <v>38</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="S4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +520,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>22</v>
@@ -568,7 +538,7 @@
         <v>400</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>26</v>
@@ -609,7 +579,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>22</v>
@@ -627,7 +597,7 @@
         <v>400</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>26</v>
@@ -668,7 +638,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>22</v>
@@ -686,7 +656,7 @@
         <v>400</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>26</v>
@@ -727,7 +697,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>22</v>
@@ -745,7 +715,7 @@
         <v>400</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>26</v>
@@ -780,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>22</v>
@@ -800,21 +770,12 @@
       <c r="I9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="0">
-        <v>400</v>
-      </c>
       <c r="K9" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="0">
-        <v>5</v>
-      </c>
-      <c r="N9" s="0">
-        <v>300</v>
-      </c>
       <c r="O9" s="0" t="s">
         <v>37</v>
       </c>
@@ -828,7 +789,7 @@
         <v>30</v>
       </c>
       <c r="S9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -845,7 +806,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>22</v>
@@ -863,7 +824,7 @@
         <v>400</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>26</v>
@@ -904,7 +865,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>22</v>
@@ -922,7 +883,7 @@
         <v>400</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>26</v>
@@ -963,7 +924,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>22</v>
@@ -981,7 +942,7 @@
         <v>400</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>26</v>
@@ -1010,7 +971,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>34</v>
@@ -1022,7 +983,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>22</v>
@@ -1040,7 +1001,7 @@
         <v>400</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>26</v>
@@ -1069,19 +1030,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>22</v>
@@ -1096,10 +1057,10 @@
         <v>24</v>
       </c>
       <c r="J14" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>26</v>
@@ -1108,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="N14" s="0">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>29</v>
@@ -1128,7 +1089,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>31</v>
@@ -1187,7 +1148,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>31</v>
@@ -1246,7 +1207,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>31</v>
@@ -1305,7 +1266,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>31</v>
@@ -1364,19 +1325,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>22</v>
@@ -1423,7 +1384,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>19</v>
@@ -1482,10 +1443,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>20</v>
@@ -1541,10 +1502,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>20</v>
@@ -1553,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>22</v>
@@ -1565,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J22" s="0">
         <v>200</v>
@@ -1574,16 +1535,16 @@
         <v>25</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M22" s="0">
         <v>5</v>
       </c>
       <c r="N22" s="0">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>28</v>
@@ -1600,16 +1561,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>32</v>
@@ -1624,7 +1585,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J23" s="0">
         <v>200</v>
@@ -1633,16 +1594,16 @@
         <v>25</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M23" s="0">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="N23" s="0">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P23" s="0" t="s">
         <v>28</v>
@@ -1659,10 +1620,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>20</v>
@@ -1674,16 +1635,16 @@
         <v>32</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J24" s="0">
         <v>200</v>
@@ -1692,16 +1653,16 @@
         <v>25</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M24" s="0">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="N24" s="0">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>28</v>
@@ -1718,13 +1679,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>21</v>
@@ -1733,16 +1694,16 @@
         <v>32</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J25" s="0">
         <v>200</v>
@@ -1751,16 +1712,16 @@
         <v>25</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M25" s="0">
         <v>5</v>
       </c>
       <c r="N25" s="0">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>28</v>
@@ -1777,13 +1738,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
+        <v>49</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>21</v>
@@ -1792,16 +1753,16 @@
         <v>32</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J26" s="0">
         <v>200</v>
@@ -1810,16 +1771,16 @@
         <v>25</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M26" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N26" s="0">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>28</v>
@@ -1836,13 +1797,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>21</v>
@@ -1860,7 +1821,7 @@
         <v>23</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J27" s="0">
         <v>200</v>
@@ -1869,16 +1830,16 @@
         <v>25</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M27" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N27" s="0">
         <v>100</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>28</v>
@@ -1895,19 +1856,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>22</v>
@@ -1919,28 +1880,28 @@
         <v>23</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J28" s="0">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M28" s="0">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N28" s="0">
         <v>100</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>29</v>
@@ -1954,52 +1915,52 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="I29" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J29" s="0">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M29" s="0">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="N29" s="0">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>29</v>
@@ -2013,28 +1974,28 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
+        <v>56</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>24</v>
@@ -2043,7 +2004,7 @@
         <v>400</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>26</v>
@@ -2072,10 +2033,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>33</v>
@@ -2084,16 +2045,16 @@
         <v>33</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>24</v>
@@ -2102,7 +2063,7 @@
         <v>400</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>26</v>
@@ -2131,10 +2092,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>33</v>
@@ -2143,16 +2104,16 @@
         <v>33</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>24</v>
@@ -2161,7 +2122,7 @@
         <v>400</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>26</v>
@@ -2190,52 +2151,52 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J33" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M33" s="0">
         <v>5</v>
       </c>
       <c r="N33" s="0">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>29</v>
@@ -2249,13 +2210,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>21</v>
@@ -2264,16 +2225,16 @@
         <v>32</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J34" s="0">
         <v>200</v>
@@ -2282,16 +2243,16 @@
         <v>25</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M34" s="0">
         <v>5</v>
       </c>
       <c r="N34" s="0">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>28</v>
@@ -2308,31 +2269,31 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J35" s="0">
         <v>200</v>
@@ -2341,19 +2302,19 @@
         <v>25</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M35" s="0">
         <v>5</v>
       </c>
       <c r="N35" s="0">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>29</v>
@@ -2367,52 +2328,52 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="0">
+        <v>400</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="0">
-        <v>200</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L36" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M36" s="0">
         <v>5</v>
       </c>
       <c r="N36" s="0">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>29</v>
@@ -2426,52 +2387,52 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="0">
+        <v>400</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="0">
-        <v>200</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L37" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M37" s="0">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="N37" s="0">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>29</v>
@@ -2485,52 +2446,52 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="I38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="0">
+        <v>400</v>
+      </c>
+      <c r="K38" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="0">
-        <v>200</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L38" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M38" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38" s="0">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>29</v>
@@ -2544,10 +2505,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>33</v>
@@ -2556,16 +2517,16 @@
         <v>33</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>24</v>
@@ -2574,7 +2535,7 @@
         <v>400</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>26</v>
@@ -2603,10 +2564,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>33</v>
@@ -2615,16 +2576,16 @@
         <v>33</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>24</v>
@@ -2633,7 +2594,7 @@
         <v>400</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>26</v>
@@ -2662,10 +2623,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>33</v>
@@ -2674,16 +2635,16 @@
         <v>33</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>24</v>
@@ -2692,7 +2653,7 @@
         <v>400</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>26</v>
@@ -2721,52 +2682,52 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J42" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M42" s="0">
         <v>5</v>
       </c>
       <c r="N42" s="0">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>29</v>
@@ -2780,52 +2741,52 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="0">
+        <v>1</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" s="0">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0">
+        <v>10</v>
+      </c>
+      <c r="O43" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="0">
-        <v>400</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="0">
-        <v>5</v>
-      </c>
-      <c r="N43" s="0">
-        <v>300</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="P43" s="0" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>29</v>
@@ -2839,10 +2800,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>33</v>
@@ -2851,16 +2812,16 @@
         <v>33</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>24</v>
@@ -2869,7 +2830,7 @@
         <v>400</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L44" s="0" t="s">
         <v>26</v>
@@ -2898,52 +2859,52 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="0">
+        <v>400</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J45" s="0">
-        <v>200</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L45" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M45" s="0">
         <v>5</v>
       </c>
       <c r="N45" s="0">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>29</v>
@@ -2957,52 +2918,52 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J46" s="0">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>25</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M46" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N46" s="0">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>29</v>
@@ -3016,52 +2977,52 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G47" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="0">
+        <v>200</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" s="0">
+        <v>5</v>
+      </c>
+      <c r="N47" s="0">
+        <v>5</v>
+      </c>
+      <c r="O47" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="0">
-        <v>400</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" s="0">
-        <v>5</v>
-      </c>
-      <c r="N47" s="0">
-        <v>300</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="P47" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>29</v>
@@ -3075,10 +3036,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>33</v>
@@ -3087,16 +3048,16 @@
         <v>33</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>24</v>
@@ -3105,7 +3066,7 @@
         <v>400</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>26</v>
@@ -3134,52 +3095,52 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="0">
+        <v>400</v>
+      </c>
+      <c r="K49" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="0">
-        <v>200</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L49" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M49" s="0">
         <v>5</v>
       </c>
       <c r="N49" s="0">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>29</v>
@@ -3193,13 +3154,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>21</v>
@@ -3208,16 +3169,16 @@
         <v>32</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J50" s="0">
         <v>200</v>
@@ -3226,16 +3187,16 @@
         <v>25</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M50" s="0">
         <v>5</v>
       </c>
       <c r="N50" s="0">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P50" s="0" t="s">
         <v>28</v>
@@ -3252,52 +3213,52 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G51" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="0">
+        <v>200</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M51" s="0">
+        <v>5</v>
+      </c>
+      <c r="N51" s="0">
+        <v>5</v>
+      </c>
+      <c r="O51" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="0">
-        <v>400</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" s="0">
-        <v>5</v>
-      </c>
-      <c r="N51" s="0">
-        <v>300</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="P51" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>29</v>
@@ -3311,10 +3272,10 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>33</v>
@@ -3323,16 +3284,16 @@
         <v>33</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>24</v>
@@ -3341,7 +3302,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L52" s="0" t="s">
         <v>26</v>
@@ -3365,57 +3326,57 @@
         <v>30</v>
       </c>
       <c r="S52" s="0">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="0">
+        <v>400</v>
+      </c>
+      <c r="K53" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J53" s="0">
-        <v>200</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L53" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M53" s="0">
         <v>5</v>
       </c>
       <c r="N53" s="0">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>29</v>
@@ -3424,18 +3385,18 @@
         <v>30</v>
       </c>
       <c r="S53" s="0">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>21</v>
@@ -3444,16 +3405,16 @@
         <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J54" s="0">
         <v>200</v>
@@ -3462,16 +3423,16 @@
         <v>25</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M54" s="0">
         <v>5</v>
       </c>
       <c r="N54" s="0">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P54" s="0" t="s">
         <v>28</v>
@@ -3483,36 +3444,36 @@
         <v>30</v>
       </c>
       <c r="S54" s="0">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J55" s="0">
         <v>200</v>
@@ -3521,16 +3482,16 @@
         <v>25</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M55" s="0">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="N55" s="0">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P55" s="0" t="s">
         <v>28</v>
@@ -3542,57 +3503,57 @@
         <v>30</v>
       </c>
       <c r="S55" s="0">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="0">
+        <v>100</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" s="0">
+        <v>1</v>
+      </c>
+      <c r="N56" s="0">
+        <v>10</v>
+      </c>
+      <c r="O56" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="0">
-        <v>400</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M56" s="0">
-        <v>5</v>
-      </c>
-      <c r="N56" s="0">
-        <v>300</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="P56" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>29</v>
@@ -3601,57 +3562,57 @@
         <v>30</v>
       </c>
       <c r="S56" s="0">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J57" s="0">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M57" s="0">
-        <v>5</v>
+        <v>10000</v>
       </c>
       <c r="N57" s="0">
-        <v>300</v>
+        <v>100000</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>29</v>
@@ -3660,57 +3621,57 @@
         <v>30</v>
       </c>
       <c r="S57" s="0">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I58" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="0">
+        <v>400</v>
+      </c>
+      <c r="K58" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="0">
-        <v>200</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L58" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M58" s="0">
         <v>5</v>
       </c>
       <c r="N58" s="0">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>29</v>
@@ -3724,52 +3685,52 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I59" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="0">
+        <v>400</v>
+      </c>
+      <c r="K59" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J59" s="0">
-        <v>200</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L59" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M59" s="0">
         <v>5</v>
       </c>
       <c r="N59" s="0">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>29</v>
@@ -3783,10 +3744,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>20</v>
@@ -3795,40 +3756,40 @@
         <v>21</v>
       </c>
       <c r="E60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="I60" s="0" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="J60" s="0">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>25</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M60" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N60" s="0">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>29</v>
@@ -3837,36 +3798,36 @@
         <v>30</v>
       </c>
       <c r="S60" s="0">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J61" s="0">
         <v>200</v>
@@ -3875,19 +3836,19 @@
         <v>25</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M61" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61" s="0">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>29</v>
@@ -3896,57 +3857,57 @@
         <v>30</v>
       </c>
       <c r="S61" s="0">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I62" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="0">
+        <v>400</v>
+      </c>
+      <c r="K62" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J62" s="0">
-        <v>100</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L62" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M62" s="0">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="N62" s="0">
-        <v>100000</v>
+        <v>300</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q62" s="0" t="s">
         <v>29</v>
@@ -3955,15 +3916,15 @@
         <v>30</v>
       </c>
       <c r="S62" s="0">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>33</v>
@@ -3972,16 +3933,16 @@
         <v>33</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>24</v>
@@ -3990,7 +3951,7 @@
         <v>400</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>26</v>
@@ -4019,52 +3980,52 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J64" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M64" s="0">
         <v>5</v>
       </c>
       <c r="N64" s="0">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q64" s="0" t="s">
         <v>29</v>
@@ -4078,10 +4039,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>20</v>
@@ -4090,19 +4051,19 @@
         <v>21</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J65" s="0">
         <v>200</v>
@@ -4111,19 +4072,19 @@
         <v>25</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M65" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N65" s="0">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>29</v>
@@ -4132,57 +4093,57 @@
         <v>30</v>
       </c>
       <c r="S65" s="0">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="0">
+        <v>400</v>
+      </c>
+      <c r="K66" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J66" s="0">
-        <v>200</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L66" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M66" s="0">
         <v>5</v>
       </c>
       <c r="N66" s="0">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>29</v>
@@ -4196,10 +4157,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>33</v>
@@ -4208,16 +4169,16 @@
         <v>33</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>24</v>
@@ -4226,7 +4187,7 @@
         <v>400</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>26</v>
@@ -4255,52 +4216,52 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J68" s="0">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M68" s="0">
         <v>5</v>
       </c>
       <c r="N68" s="0">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q68" s="0" t="s">
         <v>29</v>
@@ -4314,40 +4275,49 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F69" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69" s="0">
+        <v>200</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="M69" s="0">
+        <v>5</v>
+      </c>
+      <c r="N69" s="0">
+        <v>5</v>
+      </c>
+      <c r="O69" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O69" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="P69" s="0" t="s">
         <v>28</v>
@@ -4359,360 +4329,6 @@
         <v>30</v>
       </c>
       <c r="S69" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>105</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J70" s="0">
-        <v>200</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M70" s="0">
-        <v>5</v>
-      </c>
-      <c r="N70" s="0">
-        <v>5</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P70" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q70" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R70" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S70" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
-        <v>106</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J71" s="0">
-        <v>200</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M71" s="0">
-        <v>10</v>
-      </c>
-      <c r="N71" s="0">
-        <v>100</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="P71" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q71" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R71" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S71" s="0">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0">
-        <v>107</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J72" s="0">
-        <v>400</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M72" s="0">
-        <v>5</v>
-      </c>
-      <c r="N72" s="0">
-        <v>300</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q72" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R72" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S72" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0">
-        <v>108</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J73" s="0">
-        <v>400</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M73" s="0">
-        <v>5</v>
-      </c>
-      <c r="N73" s="0">
-        <v>300</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P73" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q73" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R73" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S73" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0">
-        <v>109</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J74" s="0">
-        <v>200</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M74" s="0">
-        <v>5</v>
-      </c>
-      <c r="N74" s="0">
-        <v>200</v>
-      </c>
-      <c r="O74" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P74" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q74" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R74" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S74" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0">
-        <v>110</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J75" s="0">
-        <v>200</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M75" s="0">
-        <v>5</v>
-      </c>
-      <c r="N75" s="0">
-        <v>5</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P75" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q75" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R75" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S75" s="0">
         <v>200</v>
       </c>
     </row>
